--- a/document/excel_upload_자료/TBL_EXP_ROLEMENU.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_ROLEMENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544538B5-AB15-45DB-A958-AF0697267142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E8217-0EB0-4A97-AA8E-6491DF0E9247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="72">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>MN_SYS_EXUP</t>
+  </si>
+  <si>
+    <t>BUYER_AUTH</t>
   </si>
 </sst>
 </file>
@@ -481,14 +484,14 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62EC3AF-2A49-466E-A4CC-7F079F3A2F81}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:C90"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.25" defaultRowHeight="16.5"/>
@@ -840,13 +843,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="24">
@@ -908,571 +911,571 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="15" t="s">
+      <c r="A54" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="15" t="s">
+      <c r="A55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="15" t="s">
+      <c r="A56" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="15" t="s">
+      <c r="A57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1480,365 +1483,431 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="15" t="s">
+      <c r="A59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="15" t="s">
+      <c r="A60" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="15" t="s">
+      <c r="A61" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="15" t="s">
+      <c r="A62" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="15" t="s">
+      <c r="A63" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="15" t="s">
+      <c r="A64" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="15" t="s">
+      <c r="A65" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="15" t="s">
+      <c r="A66" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="15" t="s">
+      <c r="A67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="15" t="s">
+      <c r="A68" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="15" t="s">
+      <c r="A69" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="15" t="s">
+      <c r="A70" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="15" t="s">
+      <c r="A71" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="15" t="s">
+      <c r="A72" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="15" t="s">
+      <c r="A73" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="15" t="s">
+      <c r="A74" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="15" t="s">
+      <c r="A75" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="15" t="s">
+      <c r="A76" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="15" t="s">
+      <c r="A77" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="15" t="s">
+      <c r="A78" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="15" t="s">
+      <c r="A79" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="15" t="s">
+      <c r="A80" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="15" t="s">
+      <c r="A81" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="15" t="s">
+      <c r="A82" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="15" t="s">
+      <c r="A83" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="15" t="s">
+      <c r="A84" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="15" t="s">
+      <c r="A85" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="15" t="s">
+      <c r="A86" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="15" t="s">
+      <c r="A87" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="15" t="s">
+      <c r="A88" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="15" t="s">
+      <c r="A89" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="15" t="s">
+      <c r="A90" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/document/excel_upload_자료/TBL_EXP_ROLEMENU.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_ROLEMENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E8217-0EB0-4A97-AA8E-6491DF0E9247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3D6CF8-EF28-4911-A978-FCCBF04D5648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="74">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,13 @@
   </si>
   <si>
     <t>BUYER_AUTH</t>
+  </si>
+  <si>
+    <t>MN_BIZ_CTRMNG</t>
+  </si>
+  <si>
+    <t>BUYER_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -827,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62EC3AF-2A49-466E-A4CC-7F079F3A2F81}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:C96"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.25" defaultRowHeight="16.5"/>
@@ -1484,12 +1491,12 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1498,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>19</v>
@@ -1509,7 +1516,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>19</v>
@@ -1520,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>19</v>
@@ -1531,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>19</v>
@@ -1542,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>19</v>
@@ -1553,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>19</v>
@@ -1564,7 +1571,7 @@
         <v>13</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>19</v>
@@ -1575,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>19</v>
@@ -1586,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>19</v>
@@ -1597,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>19</v>
@@ -1608,7 +1615,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>19</v>
@@ -1619,7 +1626,7 @@
         <v>13</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>19</v>
@@ -1630,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>19</v>
@@ -1641,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>19</v>
@@ -1652,7 +1659,7 @@
         <v>13</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>19</v>
@@ -1663,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>19</v>
@@ -1674,7 +1681,7 @@
         <v>13</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>19</v>
@@ -1685,7 +1692,7 @@
         <v>13</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>19</v>
@@ -1696,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>19</v>
@@ -1707,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>19</v>
@@ -1718,7 +1725,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>19</v>
@@ -1729,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>19</v>
@@ -1740,7 +1747,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>19</v>
@@ -1751,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>19</v>
@@ -1762,7 +1769,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>19</v>
@@ -1773,7 +1780,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>19</v>
@@ -1784,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>19</v>
@@ -1795,7 +1802,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>19</v>
@@ -1806,7 +1813,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>19</v>
@@ -1817,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>19</v>
@@ -1828,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>19</v>
@@ -1839,31 +1846,31 @@
         <v>13</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="13" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="13" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1872,7 +1879,7 @@
         <v>71</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>19</v>
@@ -1883,7 +1890,7 @@
         <v>71</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>19</v>
@@ -1894,7 +1901,7 @@
         <v>71</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>19</v>
@@ -1902,12 +1909,34 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B97" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/document/excel_upload_자료/TBL_EXP_ROLEMENU.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_ROLEMENU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3D6CF8-EF28-4911-A978-FCCBF04D5648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA661C52-1C97-48F4-B2E4-0F177BC7D5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="77">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,8 +270,16 @@
     <t>MN_BIZ_CTRMNG</t>
   </si>
   <si>
-    <t>BUYER_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>MN_SYS_USR</t>
+  </si>
+  <si>
+    <t>MN_DSH_REPORT</t>
+  </si>
+  <si>
+    <t>MN_BIZ_REPORT</t>
   </si>
 </sst>
 </file>
@@ -491,14 +499,14 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62EC3AF-2A49-466E-A4CC-7F079F3A2F81}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.25" defaultRowHeight="16.5"/>
@@ -850,13 +858,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="24">
@@ -918,1029 +926,2266 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="13" t="s">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="13" t="s">
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="13" t="s">
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="13" t="s">
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="13" t="s">
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="13" t="s">
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="13" t="s">
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="13" t="s">
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="13" t="s">
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="13" t="s">
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="13" t="s">
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="13" t="s">
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="13" t="s">
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="13" t="s">
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="13" t="s">
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="13" t="s">
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="13" t="s">
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="13" t="s">
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="13" t="s">
+      <c r="C57" s="15"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="13" t="s">
+      <c r="C58" s="15"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="13" t="s">
+      <c r="C59" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="15"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="15"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="15"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="15"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" s="15"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" s="15"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="13" t="s">
+      <c r="C110" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="13" t="s">
+      <c r="C111" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="13" t="s">
+      <c r="C112" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="13" t="s">
+      <c r="C119" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="13" t="s">
+      <c r="C120" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="13" t="s">
+      <c r="C121" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="13" t="s">
+      <c r="C122" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="13" t="s">
+      <c r="C123" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="13" t="s">
+      <c r="C124" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="13" t="s">
+      <c r="C125" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="13" t="s">
+      <c r="C126" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="13" t="s">
+      <c r="C127" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="13" t="s">
+      <c r="C128" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="13" t="s">
+      <c r="C129" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="13" t="s">
+      <c r="C130" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="13" t="s">
+      <c r="C131" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="13" t="s">
+      <c r="C132" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="13" t="s">
+      <c r="C133" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="13" t="s">
+      <c r="C134" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="13" t="s">
+      <c r="C135" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="13" t="s">
+      <c r="C136" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="13" t="s">
+      <c r="C137" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="13" t="s">
+      <c r="C138" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="13" t="s">
+      <c r="C139" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="13" t="s">
+      <c r="C140" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="13" t="s">
+      <c r="C141" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="13" t="s">
+      <c r="C142" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="13" t="s">
+      <c r="C143" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C87" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="13" t="s">
+      <c r="C144" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="13" t="s">
+      <c r="C145" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="13" t="s">
+      <c r="C146" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="13" t="s">
+      <c r="C147" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="13" t="s">
+      <c r="C148" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B93" s="13" t="s">
+      <c r="C170" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B94" s="13" t="s">
+      <c r="C173" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B95" s="13" t="s">
+      <c r="C174" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B96" s="13" t="s">
+      <c r="C175" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B97" s="13" t="s">
+      <c r="C176" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B98" s="13" t="s">
+      <c r="C177" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C178" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" s="15"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C189" s="15"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C190" s="15"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C191" s="15"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C204" s="15"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" s="15"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C206" s="15"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C207" s="15"/>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C208" s="15"/>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C209" s="15"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C210" s="15"/>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C211" s="15"/>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C212" s="15"/>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C213" s="15"/>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C214" s="15"/>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C215" s="15"/>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" s="15"/>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C217" s="15"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C218" s="15"/>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C219" s="15"/>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C220" s="15"/>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C221" s="15"/>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C222" s="15"/>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C223" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C224" s="15" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C224">
+    <sortCondition ref="A6:A224"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
